--- a/biology/Zoologie/Bitis/Bitis.xlsx
+++ b/biology/Zoologie/Bitis/Bitis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bitis est un genre de serpents de la famille des Viperidae[1]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bitis est un genre de serpents de la famille des Viperidae. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Les 18 espèces de ce genre se rencontrent en Afrique et en Arabie[1], et font partie des serpents les plus dangereux d'Afrique. En anglais, on les appelle « adders ». Plusieurs espèces sont pourvues de petites cornes sur la pointe du nez, et sont communément appelées en français « vipères cornues » ou « vipères rhinocéros ». 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Les 18 espèces de ce genre se rencontrent en Afrique et en Arabie, et font partie des serpents les plus dangereux d'Afrique. En anglais, on les appelle « adders ». Plusieurs espèces sont pourvues de petites cornes sur la pointe du nez, et sont communément appelées en français « vipères cornues » ou « vipères rhinocéros ». 
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Selon The Reptile Database   (18 octobre 2019)[2] :
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon The Reptile Database   (18 octobre 2019) :
 Bitis albanica Hewitt, 1937
 Bitis arietans (Merrem, 1820) - vipère heurtante
 Bitis armata (Smith, 1826)
@@ -603,7 +619,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Gray, 1842 : Monographic Synopsis of the Vipers, or the Family Viperidae. The Zoological Miscellany, vol. 2, p. 68-71 (texte intégral).</t>
         </is>
